--- a/Graphs/RichnessEstimates/Richness Estimates (123).xlsx
+++ b/Graphs/RichnessEstimates/Richness Estimates (123).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{5E07D1B1-E3AF-40E2-8DEE-1B2B7C138D85}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" firstSheet="2" activeTab="2" xr2:uid="{5E07D1B1-E3AF-40E2-8DEE-1B2B7C138D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Chao1 &amp; ACE" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,6 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,13 +232,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +248,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2921,12 +2921,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2935,7 +2935,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2947,12 +2947,12 @@
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -2964,12 +2964,12 @@
       <c r="D2" s="1">
         <v>2.2278280000000001</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>1.1577634000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -2979,12 +2979,12 @@
       <c r="D3" s="1">
         <v>5.0215920000000001</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>1.7658672</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2994,12 +2994,12 @@
       <c r="D4" s="1">
         <v>3.5578949999999998</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>1.6444145999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -3009,12 +3009,12 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -3024,12 +3024,12 @@
       <c r="D6" s="1">
         <v>5.2701690000000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>1.993158</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -3039,12 +3039,12 @@
       <c r="D7" s="1">
         <v>2.2727270000000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>0.95027050000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -3054,12 +3054,12 @@
       <c r="D8" s="1">
         <v>2.220183</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>1.0965754000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -3069,12 +3069,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -3084,12 +3084,12 @@
       <c r="D10" s="1">
         <v>7.3469720000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>2.3718336</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -3099,12 +3099,12 @@
       <c r="D11" s="1">
         <v>2.9673020000000001</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>1.2671159000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -3114,12 +3114,12 @@
       <c r="D12" s="1">
         <v>5.1848099999999997</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>1.8995838</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -3129,12 +3129,12 @@
       <c r="D13" s="1">
         <v>2.8139530000000001</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>1.1622254999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -3144,12 +3144,12 @@
       <c r="D14" s="1">
         <v>3.4646919999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>1.5545952999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -3159,12 +3159,12 @@
       <c r="D15" s="1">
         <v>2.6727270000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>1.1928707000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -3174,12 +3174,12 @@
       <c r="D16" s="1">
         <v>1.6727860000000001</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>1.0745505</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4">
         <v>16</v>
       </c>
@@ -3189,209 +3189,209 @@
       <c r="D17" s="4">
         <v>7.4777909999999999</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>2.4971882000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>0.5546875</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>2.2456140000000002</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>1.0408398000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>0.16312499999999999</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>1.194922</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>0.36639250000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>0.59375</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>2.461538</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>0.97431480000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>0.89965399999999995</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>9.9655170000000002</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="11">
         <v>2.3947004000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13">
+      <c r="A22" s="15"/>
+      <c r="B22" s="9">
         <v>5</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="9">
         <v>0.5</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <v>0.69314719999999996</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13">
+      <c r="A23" s="15"/>
+      <c r="B23" s="9">
         <v>6</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>0.5</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>0.69314719999999996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13">
+      <c r="A24" s="15"/>
+      <c r="B24" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>0.80332409999999999</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>5.0845070000000003</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>1.7504362</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13">
+      <c r="A25" s="15"/>
+      <c r="B25" s="9">
         <v>8</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>0.64197530000000003</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="9">
         <v>2.7931029999999999</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>1.3030923999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13">
+      <c r="A26" s="15"/>
+      <c r="B26" s="9">
         <v>9</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>0.5</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>0.86756319999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13">
+      <c r="A27" s="15"/>
+      <c r="B27" s="9">
         <v>10</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>0.375</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>1.6</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>0.56233509999999998</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13">
+      <c r="A28" s="15"/>
+      <c r="B28" s="9">
         <v>11</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>0.71604939999999995</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="9">
         <v>3.5217390000000002</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <v>1.4593594000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13">
+      <c r="A29" s="15"/>
+      <c r="B29" s="9">
         <v>12</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>0.67102910000000004</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <v>3.0397829999999999</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>1.6085370000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13">
+      <c r="A30" s="15"/>
+      <c r="B30" s="9">
         <v>13</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>0.79166669999999995</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>4.8</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="11">
         <v>1.7481555</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="4">
         <v>14</v>
       </c>
@@ -3401,209 +3401,209 @@
       <c r="D31" s="4">
         <v>4</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="12">
         <v>1.3862943999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>0.53912570000000004</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>2.1697890000000002</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>1.181527</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13">
+      <c r="A33" s="15"/>
+      <c r="B33" s="9">
         <v>2</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>0.87903759999999997</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="9">
         <v>8.2670349999999999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>2.2684890000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13">
+      <c r="A34" s="15"/>
+      <c r="B34" s="9">
         <v>3</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>0.76497930000000003</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="9">
         <v>4.2549450000000002</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <v>1.7773140000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13">
+      <c r="A35" s="15"/>
+      <c r="B35" s="9">
         <v>4</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>0.59733700000000001</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="9">
         <v>2.483466</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <v>1.556964</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13">
+      <c r="A36" s="15"/>
+      <c r="B36" s="9">
         <v>5</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>0.84297520000000004</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="9">
         <v>6.3684209999999997</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <v>1.9722470000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13">
+      <c r="A37" s="15"/>
+      <c r="B37" s="9">
         <v>6</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>0.6645508</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="9">
         <v>2.981077</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>1.4020539999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13">
+      <c r="A38" s="15"/>
+      <c r="B38" s="9">
         <v>7</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>0.80332990000000004</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="9">
         <v>5.0846559999999998</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="11">
         <v>1.872566</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13">
+      <c r="A39" s="15"/>
+      <c r="B39" s="9">
         <v>8</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>0.89655169999999995</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="9">
         <v>9.6666670000000003</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>2.441608</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13">
+      <c r="A40" s="15"/>
+      <c r="B40" s="9">
         <v>9</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>0.83418369999999997</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="9">
         <v>6.0307690000000003</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <v>1.8682920000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13">
+      <c r="A41" s="15"/>
+      <c r="B41" s="9">
         <v>10</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>0.72</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="9">
         <v>3.5714290000000002</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>1.332179</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13">
+      <c r="A42" s="15"/>
+      <c r="B42" s="9">
         <v>11</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>0.54089509999999996</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <v>2.1781510000000002</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="11">
         <v>1.2384189999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13">
+      <c r="A43" s="15"/>
+      <c r="B43" s="9">
         <v>12</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>0.80795850000000002</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="9">
         <v>5.2072070000000004</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>1.869772</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13">
+      <c r="A44" s="15"/>
+      <c r="B44" s="9">
         <v>13</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>0.62870669999999995</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="9">
         <v>2.6932879999999999</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="11">
         <v>1.5411440000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="4">
         <v>14</v>
       </c>
@@ -3613,194 +3613,194 @@
       <c r="D45" s="4">
         <v>6.5217390000000002</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="12">
         <v>2.2753169999999998</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>0.74894190000000005</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>3.9831409999999998</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="13">
         <v>1.5423441</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13">
+      <c r="A47" s="15"/>
+      <c r="B47" s="9">
         <v>2</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>0.68411659999999996</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="9">
         <v>3.1657250000000001</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>1.4411866</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13">
+      <c r="A48" s="15"/>
+      <c r="B48" s="9">
         <v>3</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>0.70987650000000002</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="9">
         <v>3.446809</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="11">
         <v>1.3823430999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13">
+      <c r="A49" s="15"/>
+      <c r="B49" s="9">
         <v>4</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>0.78546709999999997</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="9">
         <v>4.6612900000000002</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="11">
         <v>1.8550599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13">
+      <c r="A50" s="15"/>
+      <c r="B50" s="9">
         <v>5</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>0.5</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="9">
         <v>2</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="11">
         <v>0.69314719999999996</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13">
+      <c r="A51" s="15"/>
+      <c r="B51" s="9">
         <v>6</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>0.6171875</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="9">
         <v>2.6122450000000002</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="11">
         <v>1.2952874000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13">
+      <c r="A52" s="15"/>
+      <c r="B52" s="9">
         <v>7</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>0.70703119999999997</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="9">
         <v>3.4133330000000002</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="11">
         <v>1.556127</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13">
+      <c r="A53" s="15"/>
+      <c r="B53" s="9">
         <v>8</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>0.60979620000000001</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="9">
         <v>2.5627629999999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="11">
         <v>1.3151862000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13">
+      <c r="A54" s="15"/>
+      <c r="B54" s="9">
         <v>9</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>0.83398439999999996</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="9">
         <v>6.0235289999999999</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="11">
         <v>2.0969120999999999</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13">
+      <c r="A55" s="15"/>
+      <c r="B55" s="9">
         <v>10</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>0.59991349999999999</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="9">
         <v>2.4994589999999999</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="11">
         <v>1.3276698</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13">
+      <c r="A56" s="15"/>
+      <c r="B56" s="9">
         <v>11</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="9">
         <v>0.64667439999999998</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="9">
         <v>2.8302499999999999</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="11">
         <v>1.3825434000000001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13">
+      <c r="A57" s="15"/>
+      <c r="B57" s="9">
         <v>12</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="9">
         <v>0.56244899999999998</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="9">
         <v>2.2854480000000001</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="11">
         <v>1.3184206000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="4">
         <v>13</v>
       </c>
@@ -3810,209 +3810,209 @@
       <c r="D58" s="4">
         <v>2.6021510000000001</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="12">
         <v>1.3625664</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="8">
         <v>1</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="8">
         <v>0.84640000000000004</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>6.5104170000000003</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="13">
         <v>2.0606425000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13">
+      <c r="A60" s="15"/>
+      <c r="B60" s="9">
         <v>2</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="9">
         <v>0.77685950000000004</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="9">
         <v>4.4814809999999996</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="11">
         <v>1.6681607000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13">
+      <c r="A61" s="15"/>
+      <c r="B61" s="9">
         <v>3</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>0.66608999999999996</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="9">
         <v>2.9948190000000001</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="11">
         <v>1.7024556</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13">
+      <c r="A62" s="15"/>
+      <c r="B62" s="9">
         <v>4</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="9">
         <v>0.31275720000000001</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="9">
         <v>1.45509</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="11">
         <v>0.57183269999999997</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13">
+      <c r="A63" s="15"/>
+      <c r="B63" s="9">
         <v>5</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="9">
         <v>0.60444439999999999</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="9">
         <v>2.5280900000000002</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="11">
         <v>1.2972958000000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13">
+      <c r="A64" s="15"/>
+      <c r="B64" s="9">
         <v>6</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="9">
         <v>0.42593429999999999</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="9">
         <v>1.7419610000000001</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="11">
         <v>1.1003175000000001</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13">
+      <c r="A65" s="15"/>
+      <c r="B65" s="9">
         <v>7</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>0.70370370000000004</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="9">
         <v>3.375</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="11">
         <v>1.4420930999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13">
+      <c r="A66" s="15"/>
+      <c r="B66" s="9">
         <v>8</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>0.78478000000000003</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="9">
         <v>4.6464090000000002</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="11">
         <v>1.9863928</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13">
+      <c r="A67" s="15"/>
+      <c r="B67" s="9">
         <v>9</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="9">
         <v>0.36288090000000001</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="9">
         <v>1.5695650000000001</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="11">
         <v>0.80650460000000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13">
+      <c r="A68" s="15"/>
+      <c r="B68" s="9">
         <v>10</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>0.75</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="9">
         <v>4</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="11">
         <v>1.3862943999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13">
+      <c r="A69" s="15"/>
+      <c r="B69" s="9">
         <v>11</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="9">
         <v>0.34252100000000002</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="9">
         <v>1.520961</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="11">
         <v>0.83861989999999997</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13">
+      <c r="A70" s="15"/>
+      <c r="B70" s="9">
         <v>12</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="9">
         <v>0.75555559999999999</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="9">
         <v>4.0909089999999999</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="11">
         <v>1.6638598</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13">
+      <c r="A71" s="15"/>
+      <c r="B71" s="9">
         <v>13</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="9">
         <v>0.62523519999999999</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="9">
         <v>2.6683400000000002</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="11">
         <v>1.5002356999999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="4">
         <v>14</v>
       </c>
@@ -4022,209 +4022,209 @@
       <c r="D72" s="4">
         <v>8.3333329999999997</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="12">
         <v>2.3592662</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="8">
         <v>1</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="8">
         <v>0.416128</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="8">
         <v>1.712704</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="13">
         <v>0.94797089999999995</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13">
+      <c r="A74" s="15"/>
+      <c r="B74" s="9">
         <v>2</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="9">
         <v>0.640625</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="9">
         <v>2.7826089999999999</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="11">
         <v>1.3633630999999999</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13">
+      <c r="A75" s="15"/>
+      <c r="B75" s="9">
         <v>3</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="9">
         <v>0.80272109999999997</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="9">
         <v>5.0689659999999996</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="11">
         <v>1.8677736</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13">
+      <c r="A76" s="15"/>
+      <c r="B76" s="9">
         <v>4</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="9">
         <v>0.73052890000000004</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="9">
         <v>3.7109740000000002</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="11">
         <v>1.8950115999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13">
+      <c r="A77" s="15"/>
+      <c r="B77" s="9">
         <v>5</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="9">
         <v>0.71487599999999996</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="9">
         <v>3.5072459999999999</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="11">
         <v>1.3884493</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13">
+      <c r="A78" s="15"/>
+      <c r="B78" s="9">
         <v>6</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="9">
         <v>0.63194439999999996</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="9">
         <v>2.7169810000000001</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="11">
         <v>1.2424533</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13">
+      <c r="A79" s="15"/>
+      <c r="B79" s="9">
         <v>7</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="9">
         <v>0.59</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="9">
         <v>2.4390239999999999</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="11">
         <v>1.1752046</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13">
+      <c r="A80" s="15"/>
+      <c r="B80" s="9">
         <v>8</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="9">
         <v>0.74799119999999997</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="9">
         <v>3.9681160000000002</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="11">
         <v>1.6953056</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13">
+      <c r="A81" s="15"/>
+      <c r="B81" s="9">
         <v>9</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="9">
         <v>0.671875</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="9">
         <v>3.0476190000000001</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="11">
         <v>1.3862943999999999</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13">
+      <c r="A82" s="15"/>
+      <c r="B82" s="9">
         <v>10</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="9">
         <v>0</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="9">
         <v>1</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13">
+      <c r="A83" s="15"/>
+      <c r="B83" s="9">
         <v>11</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="9">
         <v>0.30045349999999998</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="9">
         <v>1.4294979999999999</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="11">
         <v>0.74187259999999999</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13">
+      <c r="A84" s="15"/>
+      <c r="B84" s="9">
         <v>12</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="9">
         <v>0.63580250000000005</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="9">
         <v>2.7457630000000002</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="11">
         <v>1.3128861999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13">
+      <c r="A85" s="15"/>
+      <c r="B85" s="9">
         <v>13</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="9">
         <v>0.62234529999999999</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="9">
         <v>2.6479219999999999</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="11">
         <v>1.6276739</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="4">
         <v>14</v>
       </c>
@@ -4234,239 +4234,239 @@
       <c r="D86" s="4">
         <v>2.817056</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="12">
         <v>1.6341562000000001</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="8">
         <v>0.7203174</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="8">
         <v>3.575482</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="13">
         <v>1.7715460000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13">
+      <c r="A88" s="15"/>
+      <c r="B88" s="9">
         <v>2</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="9">
         <v>0.81679999999999997</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="9">
         <v>5.4585150000000002</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="11">
         <v>2.0096980000000002</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13">
+      <c r="A89" s="15"/>
+      <c r="B89" s="9">
         <v>3</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="9">
         <v>0.75850340000000005</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="9">
         <v>4.1408449999999997</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="11">
         <v>1.9061889999999999</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13">
+      <c r="A90" s="15"/>
+      <c r="B90" s="9">
         <v>4</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="9">
         <v>0.88796330000000001</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="9">
         <v>8.9256510000000002</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="11">
         <v>2.4715250000000002</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13">
+      <c r="A91" s="15"/>
+      <c r="B91" s="9">
         <v>5</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="9">
         <v>0.83439260000000004</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="9">
         <v>6.0383769999999997</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="11">
         <v>2.0058180000000001</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13">
+      <c r="A92" s="15"/>
+      <c r="B92" s="9">
         <v>6</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="9">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="9">
         <v>4.4444439999999998</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="11">
         <v>1.983241</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13">
+      <c r="A93" s="15"/>
+      <c r="B93" s="9">
         <v>7</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="9">
         <v>0.83950619999999998</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="9">
         <v>6.2307689999999996</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="11">
         <v>2.0000849999999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13">
+      <c r="A94" s="15"/>
+      <c r="B94" s="9">
         <v>8</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="9">
         <v>0.51247169999999997</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="9">
         <v>2.0511629999999998</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="11">
         <v>1.0210950000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13">
+      <c r="A95" s="15"/>
+      <c r="B95" s="9">
         <v>9</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="9">
         <v>0</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="9">
         <v>1</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13">
+      <c r="A96" s="15"/>
+      <c r="B96" s="9">
         <v>10</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="9">
         <v>0.9065744</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="9">
         <v>10.703704</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="11">
         <v>2.4762469999999999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13">
+      <c r="A97" s="15"/>
+      <c r="B97" s="9">
         <v>11</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="9">
         <v>0.51577499999999998</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="9">
         <v>2.065156</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="11">
         <v>1.264408</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13">
+      <c r="A98" s="15"/>
+      <c r="B98" s="9">
         <v>12</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="9">
         <v>0.59178129999999995</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="9">
         <v>2.4496669999999998</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="11">
         <v>1.4587330000000001</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13">
+      <c r="A99" s="15"/>
+      <c r="B99" s="9">
         <v>13</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="9">
         <v>0.68839510000000004</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="9">
         <v>3.2091919999999998</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="11">
         <v>1.510046</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13">
+      <c r="A100" s="15"/>
+      <c r="B100" s="9">
         <v>14</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="9">
         <v>0.70857139999999996</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="9">
         <v>3.4313729999999998</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="11">
         <v>1.6562589999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13">
+      <c r="A101" s="15"/>
+      <c r="B101" s="9">
         <v>15</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="9">
         <v>0.79279999999999995</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="9">
         <v>4.8262549999999997</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="11">
         <v>1.992799</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="4">
         <v>16</v>
       </c>
@@ -4476,239 +4476,239 @@
       <c r="D102" s="4">
         <v>10.56044</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="12">
         <v>2.4808159999999999</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="8">
         <v>1</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="8">
         <v>0.76138689999999998</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="8">
         <v>4.1908849999999997</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="13">
         <v>2.0737570000000001</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13">
+      <c r="A104" s="15"/>
+      <c r="B104" s="9">
         <v>2</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="9">
         <v>0.68152250000000003</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="9">
         <v>3.139939</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="11">
         <v>1.815194</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="B105" s="13">
+      <c r="A105" s="15"/>
+      <c r="B105" s="9">
         <v>3</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="9">
         <v>0.69657950000000002</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="9">
         <v>3.2957559999999999</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="11">
         <v>1.601936</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13">
+      <c r="A106" s="15"/>
+      <c r="B106" s="9">
         <v>4</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="9">
         <v>0.8828125</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="9">
         <v>8.5333330000000007</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="11">
         <v>2.5533229999999998</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13">
+      <c r="A107" s="15"/>
+      <c r="B107" s="9">
         <v>5</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="9">
         <v>0.8450413</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="9">
         <v>6.4533329999999998</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="11">
         <v>2.0123139999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13">
+      <c r="A108" s="15"/>
+      <c r="B108" s="9">
         <v>6</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="9">
         <v>0.66833330000000002</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="9">
         <v>3.0150749999999999</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="11">
         <v>1.534025</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13">
+      <c r="A109" s="15"/>
+      <c r="B109" s="9">
         <v>7</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="9">
         <v>0.85440000000000005</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="9">
         <v>6.8681320000000001</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="11">
         <v>2.134255</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13">
+      <c r="A110" s="15"/>
+      <c r="B110" s="9">
         <v>8</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="9">
         <v>0.79810650000000005</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="9">
         <v>4.9531070000000001</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="11">
         <v>1.8798090000000001</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13">
+      <c r="A111" s="15"/>
+      <c r="B111" s="9">
         <v>9</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="9">
         <v>0</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="9">
         <v>1</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13">
+      <c r="A112" s="15"/>
+      <c r="B112" s="9">
         <v>10</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="9">
         <v>0</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="9">
         <v>1</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13">
+      <c r="A113" s="15"/>
+      <c r="B113" s="9">
         <v>11</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="9">
         <v>0.84023669999999995</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="9">
         <v>6.2592590000000001</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="11">
         <v>1.95126</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13">
+      <c r="A114" s="15"/>
+      <c r="B114" s="9">
         <v>12</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="9">
         <v>0.75047180000000002</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="9">
         <v>4.0075630000000002</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="11">
         <v>1.925001</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13">
+      <c r="A115" s="15"/>
+      <c r="B115" s="9">
         <v>13</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="9">
         <v>0.82446969999999997</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="9">
         <v>5.6970219999999996</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="11">
         <v>2.2160530000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13">
+      <c r="A116" s="15"/>
+      <c r="B116" s="9">
         <v>14</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="9">
         <v>0.80363320000000005</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="9">
         <v>5.092511</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="11">
         <v>2.1292749999999998</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13">
+      <c r="A117" s="15"/>
+      <c r="B117" s="9">
         <v>15</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="9">
         <v>0.82070180000000004</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="9">
         <v>5.5773010000000003</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="11">
         <v>1.9872430000000001</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="4">
         <v>16</v>
       </c>
@@ -4718,7 +4718,7 @@
       <c r="D118" s="4">
         <v>5.442177</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="12">
         <v>1.980213</v>
       </c>
     </row>
